--- a/european_co2_by_sector_w_indirect_2.xlsx
+++ b/european_co2_by_sector_w_indirect_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\03102120\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A4F2CF3-64BB-4681-AA37-4AA164E6CE3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FCF2540-F5A1-4094-B7D8-7CE7241E4E2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{66C25F9D-7279-483F-9DFE-2AEB5E958DC9}"/>
   </bookViews>
@@ -446,7 +446,7 @@
   <dimension ref="A1:O62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L44" sqref="L44"/>
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2396,8 +2396,8 @@
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
       <c r="M62" s="2">
-        <f>+J31</f>
-        <v>-224062.63</v>
+        <f>+J31*-1</f>
+        <v>224062.63</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>

--- a/european_co2_by_sector_w_indirect_2.xlsx
+++ b/european_co2_by_sector_w_indirect_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\03102120\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FCF2540-F5A1-4094-B7D8-7CE7241E4E2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{10C3BDFC-3FDC-4CD1-A60D-F5B75A0E21EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{66C25F9D-7279-483F-9DFE-2AEB5E958DC9}"/>
   </bookViews>
@@ -446,7 +446,7 @@
   <dimension ref="A1:O62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -519,7 +519,8 @@
         <v>1990</v>
       </c>
       <c r="B2" s="2">
-        <v>5455750.2300000004</v>
+        <f>SUM(C2:I2)+K2+L2</f>
+        <v>5646509.4800000004</v>
       </c>
       <c r="C2" s="2">
         <v>1677738.02</v>
@@ -562,7 +563,8 @@
         <v>1991</v>
       </c>
       <c r="B3" s="2">
-        <v>5273666.67</v>
+        <f t="shared" ref="B3:B31" si="0">SUM(C3:I3)+K3+L3</f>
+        <v>5552422.8700000001</v>
       </c>
       <c r="C3" s="2">
         <v>1642353.06</v>
@@ -605,7 +607,8 @@
         <v>1992</v>
       </c>
       <c r="B4" s="2">
-        <v>5124988.57</v>
+        <f t="shared" si="0"/>
+        <v>5378487.0700000003</v>
       </c>
       <c r="C4" s="2">
         <v>1584667.2</v>
@@ -648,7 +651,8 @@
         <v>1993</v>
       </c>
       <c r="B5" s="2">
-        <v>5024003.84</v>
+        <f t="shared" si="0"/>
+        <v>5281913.74</v>
       </c>
       <c r="C5" s="2">
         <v>1517688.86</v>
@@ -691,7 +695,8 @@
         <v>1994</v>
       </c>
       <c r="B6" s="2">
-        <v>4994038.03</v>
+        <f t="shared" si="0"/>
+        <v>5251405.0100000007</v>
       </c>
       <c r="C6" s="2">
         <v>1519973.58</v>
@@ -734,7 +739,8 @@
         <v>1995</v>
       </c>
       <c r="B7" s="2">
-        <v>5026456.33</v>
+        <f t="shared" si="0"/>
+        <v>5298618.3600000013</v>
       </c>
       <c r="C7" s="2">
         <v>1520817.8</v>
@@ -777,7 +783,8 @@
         <v>1996</v>
       </c>
       <c r="B8" s="2">
-        <v>5108140.24</v>
+        <f t="shared" si="0"/>
+        <v>5411021.120000001</v>
       </c>
       <c r="C8" s="2">
         <v>1550623.17</v>
@@ -820,7 +827,8 @@
         <v>1997</v>
       </c>
       <c r="B9" s="2">
-        <v>5018129.46</v>
+        <f t="shared" si="0"/>
+        <v>5316981.459999999</v>
       </c>
       <c r="C9" s="2">
         <v>1505246.74</v>
@@ -863,7 +871,8 @@
         <v>1998</v>
       </c>
       <c r="B10" s="2">
-        <v>4964251.79</v>
+        <f t="shared" si="0"/>
+        <v>5276517.9499999993</v>
       </c>
       <c r="C10" s="2">
         <v>1513729.72</v>
@@ -906,7 +915,8 @@
         <v>1999</v>
       </c>
       <c r="B11" s="2">
-        <v>4845698.0999999996</v>
+        <f t="shared" si="0"/>
+        <v>5171019.3599999994</v>
       </c>
       <c r="C11" s="2">
         <v>1467546.23</v>
@@ -949,7 +959,8 @@
         <v>2000</v>
       </c>
       <c r="B12" s="2">
-        <v>4879734.91</v>
+        <f t="shared" si="0"/>
+        <v>5161529.8899999987</v>
       </c>
       <c r="C12" s="2">
         <v>1504667.11</v>
@@ -992,7 +1003,8 @@
         <v>2001</v>
       </c>
       <c r="B13" s="2">
-        <v>4899641.2300000004</v>
+        <f t="shared" si="0"/>
+        <v>5212845.4400000013</v>
       </c>
       <c r="C13" s="2">
         <v>1541564.6</v>
@@ -1035,7 +1047,8 @@
         <v>2002</v>
       </c>
       <c r="B14" s="2">
-        <v>4885445.6399999997</v>
+        <f t="shared" si="0"/>
+        <v>5177857.21</v>
       </c>
       <c r="C14" s="2">
         <v>1560945.91</v>
@@ -1078,7 +1091,8 @@
         <v>2003</v>
       </c>
       <c r="B15" s="2">
-        <v>4994883.01</v>
+        <f t="shared" si="0"/>
+        <v>5264793.1199999992</v>
       </c>
       <c r="C15" s="2">
         <v>1616203.36</v>
@@ -1121,7 +1135,8 @@
         <v>2004</v>
       </c>
       <c r="B16" s="2">
-        <v>4966964.21</v>
+        <f t="shared" si="0"/>
+        <v>5266850.0999999987</v>
       </c>
       <c r="C16" s="2">
         <v>1607197.7</v>
@@ -1164,7 +1179,8 @@
         <v>2005</v>
       </c>
       <c r="B17" s="2">
-        <v>4936204.97</v>
+        <f t="shared" si="0"/>
+        <v>5231275.8599999994</v>
       </c>
       <c r="C17" s="2">
         <v>1598881.91</v>
@@ -1207,7 +1223,8 @@
         <v>2006</v>
       </c>
       <c r="B18" s="2">
-        <v>4902182.71</v>
+        <f t="shared" si="0"/>
+        <v>5220763.7600000007</v>
       </c>
       <c r="C18" s="2">
         <v>1611525.43</v>
@@ -1250,7 +1267,8 @@
         <v>2007</v>
       </c>
       <c r="B19" s="2">
-        <v>4904629.7699999996</v>
+        <f t="shared" si="0"/>
+        <v>5176997.0699999994</v>
       </c>
       <c r="C19" s="2">
         <v>1622065.91</v>
@@ -1293,7 +1311,8 @@
         <v>2008</v>
       </c>
       <c r="B20" s="2">
-        <v>4744094.93</v>
+        <f t="shared" si="0"/>
+        <v>5060957.8099999996</v>
       </c>
       <c r="C20" s="2">
         <v>1547230.29</v>
@@ -1336,7 +1355,8 @@
         <v>2009</v>
       </c>
       <c r="B21" s="2">
-        <v>4364262.79</v>
+        <f t="shared" si="0"/>
+        <v>4687270.08</v>
       </c>
       <c r="C21" s="2">
         <v>1424056.03</v>
@@ -1379,7 +1399,8 @@
         <v>2010</v>
       </c>
       <c r="B22" s="2">
-        <v>4479720.9400000004</v>
+        <f t="shared" si="0"/>
+        <v>4789117.4299999988</v>
       </c>
       <c r="C22" s="2">
         <v>1449992.91</v>
@@ -1422,7 +1443,8 @@
         <v>2011</v>
       </c>
       <c r="B23" s="2">
-        <v>4326491.67</v>
+        <f t="shared" si="0"/>
+        <v>4634877.7300000004</v>
       </c>
       <c r="C23" s="2">
         <v>1427372.66</v>
@@ -1465,7 +1487,8 @@
         <v>2012</v>
       </c>
       <c r="B24" s="2">
-        <v>4261326.42</v>
+        <f t="shared" si="0"/>
+        <v>4576289.05</v>
       </c>
       <c r="C24" s="2">
         <v>1421223.67</v>
@@ -1508,7 +1531,8 @@
         <v>2013</v>
       </c>
       <c r="B25" s="2">
-        <v>4161507.55</v>
+        <f t="shared" si="0"/>
+        <v>4476929.5999999996</v>
       </c>
       <c r="C25" s="2">
         <v>1344612.83</v>
@@ -1551,7 +1575,8 @@
         <v>2014</v>
       </c>
       <c r="B26" s="2">
-        <v>4000212.3</v>
+        <f t="shared" si="0"/>
+        <v>4298330.0999999996</v>
       </c>
       <c r="C26" s="2">
         <v>1259166.42</v>
@@ -1594,7 +1619,8 @@
         <v>2015</v>
       </c>
       <c r="B27" s="2">
-        <v>4038275.43</v>
+        <f t="shared" si="0"/>
+        <v>4328728.29</v>
       </c>
       <c r="C27" s="2">
         <v>1247318.71</v>
@@ -1637,7 +1663,8 @@
         <v>2016</v>
       </c>
       <c r="B28" s="2">
-        <v>4023520.26</v>
+        <f t="shared" si="0"/>
+        <v>4308081.9700000007</v>
       </c>
       <c r="C28" s="2">
         <v>1200799.26</v>
@@ -1680,7 +1707,8 @@
         <v>2017</v>
       </c>
       <c r="B29" s="2">
-        <v>4090479.62</v>
+        <f t="shared" si="0"/>
+        <v>4322354.53</v>
       </c>
       <c r="C29" s="2">
         <v>1185884.6100000001</v>
@@ -1723,7 +1751,8 @@
         <v>2018</v>
       </c>
       <c r="B30" s="2">
-        <v>3990128.06</v>
+        <f t="shared" si="0"/>
+        <v>4228042.2300000004</v>
       </c>
       <c r="C30" s="2">
         <v>1118938.94</v>
@@ -1766,7 +1795,8 @@
         <v>2019</v>
       </c>
       <c r="B31" s="2">
-        <v>3829644.69</v>
+        <f t="shared" si="0"/>
+        <v>4053707.3</v>
       </c>
       <c r="C31" s="2">
         <v>993331.23</v>
@@ -2012,11 +2042,11 @@
       <c r="M42" s="2"/>
       <c r="N42" s="2">
         <f>B2*0.6</f>
-        <v>3273450.1380000003</v>
+        <v>3387905.6880000001</v>
       </c>
       <c r="O42" s="2">
         <f>B2*0.45</f>
-        <v>2455087.6035000002</v>
+        <v>2540929.2660000003</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">

--- a/european_co2_by_sector_w_indirect_2.xlsx
+++ b/european_co2_by_sector_w_indirect_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\03102120\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{10C3BDFC-3FDC-4CD1-A60D-F5B75A0E21EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78841226-6D0C-4832-919C-218B297905D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{66C25F9D-7279-483F-9DFE-2AEB5E958DC9}"/>
   </bookViews>
@@ -445,8 +445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCDC483D-745B-48CA-99D0-BF8057042A60}">
   <dimension ref="A1:O62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="M63" sqref="M63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2426,8 +2426,7 @@
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
       <c r="M62" s="2">
-        <f>+J31*-1</f>
-        <v>224062.63</v>
+        <v>0</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>

--- a/european_co2_by_sector_w_indirect_2.xlsx
+++ b/european_co2_by_sector_w_indirect_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\03102120\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78841226-6D0C-4832-919C-218B297905D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D7CA87E-9FCF-46AD-9179-3600F129638B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{66C25F9D-7279-483F-9DFE-2AEB5E958DC9}"/>
   </bookViews>
@@ -445,8 +445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCDC483D-745B-48CA-99D0-BF8057042A60}">
   <dimension ref="A1:O62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="M63" sqref="M63"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N45" sqref="N45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
